--- a/results/mp/tinybert/corona/confidence/42/0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,136 +40,160 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>share</t>
+    <t>$</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -527,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9090909090909091</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -696,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,31 +738,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L5">
+        <v>56</v>
+      </c>
+      <c r="M5">
+        <v>56</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L5">
-        <v>22</v>
-      </c>
-      <c r="M5">
-        <v>22</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7142857142857143</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4642857142857143</v>
+        <v>0.189922480620155</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>418</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3304721030042919</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="C9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,7 +970,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2209302325581395</v>
+        <v>0.05277777777777778</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -964,119 +988,71 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>341</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L10">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>31</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L11">
         <v>67</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="M11">
+        <v>67</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K10">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L10">
-        <v>48</v>
-      </c>
-      <c r="M10">
-        <v>48</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1875</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>65</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L11">
-        <v>23</v>
-      </c>
-      <c r="M11">
-        <v>23</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>123</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.8046875</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.803921568627451</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1140,21 +1116,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7435897435897436</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1166,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7413793103448276</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1192,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7123287671232876</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L17">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1218,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1244,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7058823529411765</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1270,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1301,16 +1277,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6551724137931034</v>
+        <v>0.6875</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1322,47 +1298,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L22">
+        <v>35</v>
+      </c>
+      <c r="M22">
+        <v>35</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>16</v>
-      </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1374,21 +1350,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5666666666666667</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1400,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1426,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5454545454545454</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1452,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.5248041775456919</v>
       </c>
       <c r="L27">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="M27">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1478,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>72</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1504,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4882629107981221</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L29">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="M29">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1530,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>109</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4857142857142857</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1556,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4806201550387597</v>
+        <v>0.4</v>
       </c>
       <c r="L31">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="M31">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1582,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>67</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4642857142857143</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1608,21 +1584,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4456521739130435</v>
+        <v>0.3472803347280335</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1634,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>51</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.2702702702702703</v>
+        <v>0.34375</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1660,33 +1636,293 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L36">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K35">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="L35">
-        <v>10</v>
-      </c>
-      <c r="M35">
-        <v>10</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>28</v>
+      <c r="K37">
+        <v>0.1724137931034483</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38">
+        <v>0.02228976697061803</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <v>24</v>
+      </c>
+      <c r="N38">
+        <v>0.92</v>
+      </c>
+      <c r="O38">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39">
+        <v>0.01583333333333333</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40">
+        <v>0.009414654113794515</v>
+      </c>
+      <c r="L40">
+        <v>23</v>
+      </c>
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="N40">
+        <v>0.92</v>
+      </c>
+      <c r="O40">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41">
+        <v>0.008982035928143712</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>25</v>
+      </c>
+      <c r="N41">
+        <v>0.96</v>
+      </c>
+      <c r="O41">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42">
+        <v>0.006758931445123914</v>
+      </c>
+      <c r="L42">
+        <v>21</v>
+      </c>
+      <c r="M42">
+        <v>21</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43">
+        <v>0.005315461058470071</v>
+      </c>
+      <c r="L43">
+        <v>23</v>
+      </c>
+      <c r="M43">
+        <v>24</v>
+      </c>
+      <c r="N43">
+        <v>0.96</v>
+      </c>
+      <c r="O43">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44">
+        <v>0.005005005005005005</v>
+      </c>
+      <c r="L44">
+        <v>25</v>
+      </c>
+      <c r="M44">
+        <v>26</v>
+      </c>
+      <c r="N44">
+        <v>0.96</v>
+      </c>
+      <c r="O44">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45">
+        <v>0.004261088514429595</v>
+      </c>
+      <c r="L45">
+        <v>22</v>
+      </c>
+      <c r="M45">
+        <v>24</v>
+      </c>
+      <c r="N45">
+        <v>0.92</v>
+      </c>
+      <c r="O45">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>5141</v>
       </c>
     </row>
   </sheetData>
